--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Data science\Projetos do Pirão\projeto_comodoro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráf1" sheetId="2" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="106">
   <si>
     <t>entregas</t>
   </si>
@@ -204,6 +200,144 @@
   </si>
   <si>
     <t>Lucro</t>
+  </si>
+  <si>
+    <t>Sr. Shitake - Av. Café</t>
+  </si>
+  <si>
+    <t>Elvis Oliveira</t>
+  </si>
+  <si>
+    <t>Leonardo Thomaz</t>
+  </si>
+  <si>
+    <t>Ricardo Luiz</t>
+  </si>
+  <si>
+    <t>Vitor Vale</t>
+  </si>
+  <si>
+    <t>Natsumi Sushi Express</t>
+  </si>
+  <si>
+    <t>João Palvizini</t>
+  </si>
+  <si>
+    <t>18:00 - 23:00</t>
+  </si>
+  <si>
+    <t>Sr. Shitake - Av. César Vergueiro</t>
+  </si>
+  <si>
+    <t>Iago Hilário</t>
+  </si>
+  <si>
+    <t>Iuri Rocha</t>
+  </si>
+  <si>
+    <t>Jeferson Luis Mendes</t>
+  </si>
+  <si>
+    <t>Vinícios Zanoni</t>
+  </si>
+  <si>
+    <t>Vinícius Zanoni</t>
+  </si>
+  <si>
+    <t>Castelo das Esfihas</t>
+  </si>
+  <si>
+    <t>Felipe Muniz</t>
+  </si>
+  <si>
+    <t>Junior Peroni</t>
+  </si>
+  <si>
+    <t>Emporio Grill</t>
+  </si>
+  <si>
+    <t>Edyr Carlos</t>
+  </si>
+  <si>
+    <t>Lucas Venancio</t>
+  </si>
+  <si>
+    <t>Casa de carne Portugal</t>
+  </si>
+  <si>
+    <t>Vinícius Perez de Oliveira</t>
+  </si>
+  <si>
+    <t>Cantina Falaguasta</t>
+  </si>
+  <si>
+    <t>Diogo Katsuyoshi</t>
+  </si>
+  <si>
+    <t>Lucas Lombardi</t>
+  </si>
+  <si>
+    <t>Falaguasta Araraquara</t>
+  </si>
+  <si>
+    <t>Leonardo Placeres</t>
+  </si>
+  <si>
+    <t>10:00 - 15:00</t>
+  </si>
+  <si>
+    <t>10:30 - 17:00</t>
+  </si>
+  <si>
+    <t>10:00 - 17:00</t>
+  </si>
+  <si>
+    <t>Luiz Otávio</t>
+  </si>
+  <si>
+    <t>Leonardo Belizário</t>
+  </si>
+  <si>
+    <t>Luan Belizário</t>
+  </si>
+  <si>
+    <t>Pedro Gomes</t>
+  </si>
+  <si>
+    <t>Coxilha do Pampas</t>
+  </si>
+  <si>
+    <t>Pizza NY</t>
+  </si>
+  <si>
+    <t>Yuri Ricardo</t>
+  </si>
+  <si>
+    <t>Falaguasta 13 de maio</t>
+  </si>
+  <si>
+    <t>Djalma</t>
+  </si>
+  <si>
+    <t>Athenas Pizzaria</t>
+  </si>
+  <si>
+    <t>Emporio Grilll</t>
+  </si>
+  <si>
+    <t>Arthur Henrique</t>
+  </si>
+  <si>
+    <t>Diego Ferreira</t>
+  </si>
+  <si>
+    <t>Falaguata Bonfim</t>
+  </si>
+  <si>
+    <t>18:00 - 23:59</t>
+  </si>
+  <si>
+    <t>Pizzaria 2 Irmãos - Loja 3</t>
   </si>
 </sst>
 </file>
@@ -212,7 +346,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -254,8 +388,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -274,6 +408,4608 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Status</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Plan1!$A$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Marina Beatriz</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Wanderson Reis</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Leonardo Thomaz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Dona Bia Pizza</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$D$2:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Turno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Plan1!$A$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Marina Beatriz</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Wanderson Reis</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Leonardo Thomaz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Dona Bia Pizza</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$E$2:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Produto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Plan1!$A$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Marina Beatriz</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Wanderson Reis</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Leonardo Thomaz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Dona Bia Pizza</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$F$2:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quantidade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Plan1!$A$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Marina Beatriz</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Wanderson Reis</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Leonardo Thomaz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Dona Bia Pizza</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$G$2:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Plan1!$A$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Marina Beatriz</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Wanderson Reis</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Leonardo Thomaz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Dona Bia Pizza</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$H$2:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor Entregador</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Plan1!$A$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Marina Beatriz</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Wanderson Reis</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Leonardo Thomaz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Dona Bia Pizza</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$I$2:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lucro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Plan1!$A$2:$C$52</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="51"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Guilherme Rampim</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Victor Hugo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Wilian Garcia</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Andre Pereira</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Gabriel Antonio Seabra</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Igor Henrique Barbosa</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Yuri Prates</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Marina Beatriz</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Wanderson Reis</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Peterson</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Gabriel Ventura</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Luan Belizario</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Luiz Henrique Franch</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Thiago Francisco</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Edgar Veridiano</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Eliston</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Edinardo Soares</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Natan Gonçalves</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Wilian Elias</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Isac Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Italo</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Alee dos Santos</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Elvis Oliveira</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Leonardo Thomaz</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Pizzaria 2 Irmãos</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Cupim Grill</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Dona Bia Pizza</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>EAI Burger</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Franguz</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Prato Cheio</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Coxilha dos Pampas</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Savoy</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Capitão Prime</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Pizzaria 2 Irmãos - Loja 2</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Sr. Shitake - Av. Café</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>21/05/2024</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$J$2:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="41521920"/>
+        <c:axId val="41523456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="41521920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41523456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41523456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41521920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9642593" cy="6008981"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -319,7 +5055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +5090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,7 +5267,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,24 +5275,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2058,6 +6794,2252 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>9</v>
+      </c>
+      <c r="H50" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="I50" s="2">
+        <v>63</v>
+      </c>
+      <c r="J50" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>35</v>
+      </c>
+      <c r="I51" s="2">
+        <v>35</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52" s="2">
+        <v>85</v>
+      </c>
+      <c r="I52" s="2">
+        <v>70</v>
+      </c>
+      <c r="J52" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>35</v>
+      </c>
+      <c r="I53" s="2">
+        <v>35</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>13</v>
+      </c>
+      <c r="H54" s="2">
+        <v>110.5</v>
+      </c>
+      <c r="I54" s="2">
+        <v>91</v>
+      </c>
+      <c r="J54" s="2">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>35</v>
+      </c>
+      <c r="I55" s="2">
+        <v>35</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>9</v>
+      </c>
+      <c r="H56" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="I56" s="2">
+        <v>63</v>
+      </c>
+      <c r="J56" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>35</v>
+      </c>
+      <c r="I57" s="2">
+        <v>35</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>8</v>
+      </c>
+      <c r="H58" s="2">
+        <v>68</v>
+      </c>
+      <c r="I58" s="2">
+        <v>56</v>
+      </c>
+      <c r="J58" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>25</v>
+      </c>
+      <c r="I59" s="2">
+        <v>25</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>8</v>
+      </c>
+      <c r="H60" s="2">
+        <v>68</v>
+      </c>
+      <c r="I60" s="2">
+        <v>56</v>
+      </c>
+      <c r="J60" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <v>35</v>
+      </c>
+      <c r="I61" s="2">
+        <v>35</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>18</v>
+      </c>
+      <c r="H62" s="2">
+        <v>153</v>
+      </c>
+      <c r="I62" s="2">
+        <v>126</v>
+      </c>
+      <c r="J62" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>35</v>
+      </c>
+      <c r="I63" s="2">
+        <v>35</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>11</v>
+      </c>
+      <c r="H64" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="I64" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>35</v>
+      </c>
+      <c r="I65" s="2">
+        <v>35</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66" s="2">
+        <v>85</v>
+      </c>
+      <c r="I66" s="2">
+        <v>70</v>
+      </c>
+      <c r="J66" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>35</v>
+      </c>
+      <c r="I67" s="2">
+        <v>35</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+      <c r="H68" s="2">
+        <v>93</v>
+      </c>
+      <c r="I68" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69" s="2">
+        <v>93</v>
+      </c>
+      <c r="I69" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+      <c r="H70" s="2">
+        <v>100</v>
+      </c>
+      <c r="I70" s="2">
+        <v>90</v>
+      </c>
+      <c r="J70" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+      <c r="H71" s="2">
+        <v>100</v>
+      </c>
+      <c r="I71" s="2">
+        <v>90</v>
+      </c>
+      <c r="J71" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>8</v>
+      </c>
+      <c r="H72" s="2">
+        <v>114</v>
+      </c>
+      <c r="I72" s="2">
+        <v>100</v>
+      </c>
+      <c r="J72" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>87</v>
+      </c>
+      <c r="F73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>16</v>
+      </c>
+      <c r="H73" s="2">
+        <v>136</v>
+      </c>
+      <c r="I73" s="2">
+        <v>112</v>
+      </c>
+      <c r="J73" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>25</v>
+      </c>
+      <c r="I74" s="2">
+        <v>25</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>8</v>
+      </c>
+      <c r="H75" s="2">
+        <v>68</v>
+      </c>
+      <c r="I75" s="2">
+        <v>56</v>
+      </c>
+      <c r="J75" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>25</v>
+      </c>
+      <c r="I76" s="2">
+        <v>25</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77" s="2">
+        <v>93</v>
+      </c>
+      <c r="I77" s="2">
+        <v>81</v>
+      </c>
+      <c r="J77" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78" s="2">
+        <v>93</v>
+      </c>
+      <c r="I78" s="2">
+        <v>81</v>
+      </c>
+      <c r="J78" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>11</v>
+      </c>
+      <c r="H79" s="2">
+        <v>88</v>
+      </c>
+      <c r="I79" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
+        <v>20</v>
+      </c>
+      <c r="I80" s="2">
+        <v>20</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>11</v>
+      </c>
+      <c r="H81" s="2">
+        <v>88</v>
+      </c>
+      <c r="I81" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2">
+        <v>20</v>
+      </c>
+      <c r="I82" s="2">
+        <v>20</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>11</v>
+      </c>
+      <c r="H83" s="2">
+        <v>88</v>
+      </c>
+      <c r="I83" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>20</v>
+      </c>
+      <c r="I84" s="2">
+        <v>20</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" t="s">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>16</v>
+      </c>
+      <c r="H85" s="2">
+        <v>67.2</v>
+      </c>
+      <c r="I85" s="2">
+        <v>56</v>
+      </c>
+      <c r="J85" s="2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2">
+        <v>25</v>
+      </c>
+      <c r="I86" s="2">
+        <v>25</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>18</v>
+      </c>
+      <c r="H87" s="2">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I87" s="2">
+        <v>63</v>
+      </c>
+      <c r="J87" s="2">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2">
+        <v>25</v>
+      </c>
+      <c r="I88" s="2">
+        <v>25</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>14</v>
+      </c>
+      <c r="H89" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="I89" s="2">
+        <v>49</v>
+      </c>
+      <c r="J89" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2">
+        <v>25</v>
+      </c>
+      <c r="I90" s="2">
+        <v>25</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>13</v>
+      </c>
+      <c r="H91" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="I91" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="J91" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2">
+        <v>25</v>
+      </c>
+      <c r="I92" s="2">
+        <v>25</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B93" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>11</v>
+      </c>
+      <c r="H93" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="I93" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2">
+        <v>35</v>
+      </c>
+      <c r="I94" s="2">
+        <v>35</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>7</v>
+      </c>
+      <c r="H95" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="I95" s="2">
+        <v>49</v>
+      </c>
+      <c r="J95" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B96" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2">
+        <v>35</v>
+      </c>
+      <c r="I96" s="2">
+        <v>35</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>8</v>
+      </c>
+      <c r="H97" s="2">
+        <v>68</v>
+      </c>
+      <c r="I97" s="2">
+        <v>56</v>
+      </c>
+      <c r="J97" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B98" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2">
+        <v>35</v>
+      </c>
+      <c r="I98" s="2">
+        <v>35</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>9</v>
+      </c>
+      <c r="H99" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="I99" s="2">
+        <v>63</v>
+      </c>
+      <c r="J99" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B100" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2">
+        <v>35</v>
+      </c>
+      <c r="I100" s="2">
+        <v>35</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>9</v>
+      </c>
+      <c r="H101" s="2">
+        <v>72</v>
+      </c>
+      <c r="I101" s="2">
+        <v>63</v>
+      </c>
+      <c r="J101" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B102" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2">
+        <v>20</v>
+      </c>
+      <c r="I102" s="2">
+        <v>20</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B103" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>9</v>
+      </c>
+      <c r="H103" s="2">
+        <v>72</v>
+      </c>
+      <c r="I103" s="2">
+        <v>63</v>
+      </c>
+      <c r="J103" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B104" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2">
+        <v>20</v>
+      </c>
+      <c r="I104" s="2">
+        <v>20</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B105" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>9</v>
+      </c>
+      <c r="H105" s="2">
+        <v>72</v>
+      </c>
+      <c r="I105" s="2">
+        <v>63</v>
+      </c>
+      <c r="J105" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B106" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2">
+        <v>20</v>
+      </c>
+      <c r="I106" s="2">
+        <v>20</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>14</v>
+      </c>
+      <c r="H107" s="2">
+        <v>112</v>
+      </c>
+      <c r="I107" s="2">
+        <v>98</v>
+      </c>
+      <c r="J107" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2">
+        <v>20</v>
+      </c>
+      <c r="I108" s="2">
+        <v>20</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B109" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" t="s">
+        <v>49</v>
+      </c>
+      <c r="F109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>7</v>
+      </c>
+      <c r="H109" s="2">
+        <v>104</v>
+      </c>
+      <c r="I109" s="2">
+        <v>90</v>
+      </c>
+      <c r="J109" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B110" t="s">
+        <v>97</v>
+      </c>
+      <c r="C110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>14</v>
+      </c>
+      <c r="H110" s="2">
+        <v>119</v>
+      </c>
+      <c r="I110" s="2">
+        <v>98</v>
+      </c>
+      <c r="J110" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B111" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>25</v>
+      </c>
+      <c r="I111" s="2">
+        <v>25</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>8</v>
+      </c>
+      <c r="H112" s="2">
+        <v>96.2</v>
+      </c>
+      <c r="I112" s="2">
+        <v>76</v>
+      </c>
+      <c r="J112" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>6</v>
+      </c>
+      <c r="H113" s="2">
+        <v>79.5</v>
+      </c>
+      <c r="I113" s="2">
+        <v>69</v>
+      </c>
+      <c r="J113" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B114" t="s">
+        <v>80</v>
+      </c>
+      <c r="C114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" t="s">
+        <v>88</v>
+      </c>
+      <c r="F114" t="s">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>13</v>
+      </c>
+      <c r="H114" s="2">
+        <v>109.2</v>
+      </c>
+      <c r="I114" s="2">
+        <v>91</v>
+      </c>
+      <c r="J114" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B115" t="s">
+        <v>80</v>
+      </c>
+      <c r="C115" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>30</v>
+      </c>
+      <c r="I115" s="2">
+        <v>30</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B116" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>89</v>
+      </c>
+      <c r="F116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>13</v>
+      </c>
+      <c r="H116" s="2">
+        <v>100</v>
+      </c>
+      <c r="I116" s="2">
+        <v>90</v>
+      </c>
+      <c r="J116" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>89</v>
+      </c>
+      <c r="F117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>10</v>
+      </c>
+      <c r="H117" s="2">
+        <v>80</v>
+      </c>
+      <c r="I117" s="2">
+        <v>70</v>
+      </c>
+      <c r="J117" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B118" t="s">
+        <v>100</v>
+      </c>
+      <c r="C118" t="s">
+        <v>78</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2">
+        <v>20</v>
+      </c>
+      <c r="I118" s="2">
+        <v>20</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" t="s">
+        <v>102</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119" s="2">
+        <v>93</v>
+      </c>
+      <c r="I119" s="2">
+        <v>81</v>
+      </c>
+      <c r="J119" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>4</v>
+      </c>
+      <c r="H120" s="2">
+        <v>93</v>
+      </c>
+      <c r="I120" s="2">
+        <v>81</v>
+      </c>
+      <c r="J120" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B121" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
+        <v>104</v>
+      </c>
+      <c r="F121" t="s">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>10</v>
+      </c>
+      <c r="H121" s="2">
+        <v>85</v>
+      </c>
+      <c r="I121" s="2">
+        <v>70</v>
+      </c>
+      <c r="J121" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B122" t="s">
+        <v>103</v>
+      </c>
+      <c r="C122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2">
+        <v>25</v>
+      </c>
+      <c r="I122" s="2">
+        <v>25</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Data science\Python\Projetos do Pirão\projeto_comodoro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gráf1" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="100">
   <si>
     <t>entregas</t>
   </si>
@@ -37,9 +42,6 @@
     <t>17:45 - 23:30</t>
   </si>
   <si>
-    <t>10:30 - 16:01</t>
-  </si>
-  <si>
     <t>confirmado</t>
   </si>
   <si>
@@ -49,15 +51,6 @@
     <t>18:00 - 00:00</t>
   </si>
   <si>
-    <t>18:00 - 00:01</t>
-  </si>
-  <si>
-    <t>18:00 - 00:03</t>
-  </si>
-  <si>
-    <t>18:00 - 00:05</t>
-  </si>
-  <si>
     <t>confrimado</t>
   </si>
   <si>
@@ -304,9 +297,6 @@
     <t>Pedro Gomes</t>
   </si>
   <si>
-    <t>Coxilha do Pampas</t>
-  </si>
-  <si>
     <t>Pizza NY</t>
   </si>
   <si>
@@ -332,9 +322,6 @@
   </si>
   <si>
     <t>Falaguata Bonfim</t>
-  </si>
-  <si>
-    <t>18:00 - 23:59</t>
   </si>
   <si>
     <t>Pizzaria 2 Irmãos - Loja 3</t>
@@ -928,151 +915,79 @@
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
@@ -4925,20 +4840,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41521920"/>
-        <c:axId val="41523456"/>
+        <c:axId val="-390741392"/>
+        <c:axId val="-390728880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41521920"/>
+        <c:axId val="-390741392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41523456"/>
+        <c:crossAx val="-390728880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4946,7 +4862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41523456"/>
+        <c:axId val="-390728880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4957,14 +4873,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41521920"/>
+        <c:crossAx val="-390741392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5267,7 +5182,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5277,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5297,34 +5212,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5332,13 +5247,13 @@
         <v>45433</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -5364,13 +5279,10 @@
         <v>45433</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -5393,13 +5305,13 @@
         <v>45433</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -5425,13 +5337,10 @@
         <v>45433</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -5454,13 +5363,13 @@
         <v>45433</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -5486,13 +5395,10 @@
         <v>45433</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -5515,13 +5421,13 @@
         <v>45433</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -5547,13 +5453,10 @@
         <v>45433</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -5576,16 +5479,16 @@
         <v>45433</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
@@ -5608,13 +5511,10 @@
         <v>45433</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -5637,16 +5537,16 @@
         <v>45433</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
@@ -5669,13 +5569,10 @@
         <v>45433</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
@@ -5698,16 +5595,16 @@
         <v>45433</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
@@ -5730,13 +5627,10 @@
         <v>45433</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>1</v>
@@ -5759,16 +5653,16 @@
         <v>45433</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
@@ -5791,13 +5685,10 @@
         <v>45433</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
@@ -5820,16 +5711,16 @@
         <v>45433</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
@@ -5852,13 +5743,10 @@
         <v>45433</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
         <v>1</v>
@@ -5881,13 +5769,13 @@
         <v>45433</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -5913,16 +5801,16 @@
         <v>45433</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -5945,13 +5833,10 @@
         <v>45433</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
         <v>1</v>
@@ -5974,16 +5859,16 @@
         <v>45433</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
@@ -6006,16 +5891,16 @@
         <v>45433</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -6038,13 +5923,10 @@
         <v>45433</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
         <v>1</v>
@@ -6067,16 +5949,16 @@
         <v>45433</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
@@ -6099,13 +5981,10 @@
         <v>45433</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>1</v>
@@ -6128,16 +6007,16 @@
         <v>45433</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -6160,13 +6039,10 @@
         <v>45433</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
         <v>1</v>
@@ -6189,16 +6065,16 @@
         <v>45433</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
@@ -6221,13 +6097,10 @@
         <v>45433</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
         <v>1</v>
@@ -6250,16 +6123,16 @@
         <v>45433</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -6282,13 +6155,10 @@
         <v>45433</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>1</v>
@@ -6311,13 +6181,13 @@
         <v>45433</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
@@ -6343,13 +6213,10 @@
         <v>45433</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
         <v>1</v>
@@ -6372,13 +6239,13 @@
         <v>45433</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
@@ -6404,13 +6271,10 @@
         <v>45433</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>1</v>
@@ -6433,16 +6297,16 @@
         <v>45433</v>
       </c>
       <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
-        <v>39</v>
-      </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -6465,13 +6329,10 @@
         <v>45433</v>
       </c>
       <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
         <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>1</v>
@@ -6494,16 +6355,16 @@
         <v>45433</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
@@ -6526,13 +6387,10 @@
         <v>45433</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
         <v>1</v>
@@ -6555,16 +6413,16 @@
         <v>45433</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
@@ -6587,13 +6445,10 @@
         <v>45433</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
         <v>1</v>
@@ -6616,16 +6471,16 @@
         <v>45433</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -6648,13 +6503,10 @@
         <v>45433</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
         <v>1</v>
@@ -6677,16 +6529,16 @@
         <v>45433</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
@@ -6709,13 +6561,10 @@
         <v>45433</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
         <v>1</v>
@@ -6738,16 +6587,16 @@
         <v>45433</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
@@ -6770,13 +6619,10 @@
         <v>45433</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
         <v>1</v>
@@ -6799,16 +6645,16 @@
         <v>45433</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -6831,13 +6677,10 @@
         <v>45433</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F51" t="s">
         <v>1</v>
@@ -6860,16 +6703,16 @@
         <v>45433</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
@@ -6892,13 +6735,10 @@
         <v>45433</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
         <v>1</v>
@@ -6921,16 +6761,16 @@
         <v>45433</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
@@ -6953,13 +6793,10 @@
         <v>45433</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
         <v>1</v>
@@ -6982,16 +6819,16 @@
         <v>45433</v>
       </c>
       <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
         <v>60</v>
       </c>
-      <c r="C56" t="s">
-        <v>64</v>
-      </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
@@ -7014,13 +6851,10 @@
         <v>45433</v>
       </c>
       <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
         <v>60</v>
-      </c>
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>1</v>
@@ -7043,16 +6877,16 @@
         <v>45433</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
@@ -7075,13 +6909,10 @@
         <v>45433</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
         <v>1</v>
@@ -7104,16 +6935,16 @@
         <v>45433</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
@@ -7136,13 +6967,10 @@
         <v>45433</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F61" t="s">
         <v>1</v>
@@ -7165,16 +6993,16 @@
         <v>45433</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
@@ -7197,13 +7025,10 @@
         <v>45433</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F63" t="s">
         <v>1</v>
@@ -7226,16 +7051,16 @@
         <v>45433</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -7258,13 +7083,10 @@
         <v>45433</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F65" t="s">
         <v>1</v>
@@ -7287,16 +7109,16 @@
         <v>45433</v>
       </c>
       <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
         <v>68</v>
       </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
@@ -7319,13 +7141,10 @@
         <v>45433</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F67" t="s">
         <v>1</v>
@@ -7348,16 +7167,16 @@
         <v>45433</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
@@ -7380,16 +7199,16 @@
         <v>45433</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -7412,16 +7231,16 @@
         <v>45433</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
@@ -7444,16 +7263,16 @@
         <v>45433</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
@@ -7476,16 +7295,16 @@
         <v>45433</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -7508,16 +7327,16 @@
         <v>45433</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
         <v>83</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" t="s">
-        <v>87</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
@@ -7540,13 +7359,10 @@
         <v>45433</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s">
         <v>1</v>
@@ -7569,16 +7385,16 @@
         <v>45433</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -7601,13 +7417,10 @@
         <v>45433</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F76" t="s">
         <v>1</v>
@@ -7630,16 +7443,16 @@
         <v>45433</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
@@ -7662,16 +7475,16 @@
         <v>45433</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
@@ -7694,13 +7507,13 @@
         <v>45432</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
         <v>2</v>
@@ -7726,13 +7539,10 @@
         <v>45432</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F80" t="s">
         <v>1</v>
@@ -7755,13 +7565,13 @@
         <v>45432</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>
@@ -7787,13 +7597,10 @@
         <v>45432</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F82" t="s">
         <v>1</v>
@@ -7816,13 +7623,13 @@
         <v>45432</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
         <v>2</v>
@@ -7848,13 +7655,10 @@
         <v>45432</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F84" t="s">
         <v>1</v>
@@ -7877,16 +7681,16 @@
         <v>45432</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
@@ -7909,13 +7713,10 @@
         <v>45432</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F86" t="s">
         <v>1</v>
@@ -7938,16 +7739,16 @@
         <v>45432</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -7970,13 +7771,10 @@
         <v>45432</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F88" t="s">
         <v>1</v>
@@ -7999,16 +7797,16 @@
         <v>45432</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
@@ -8031,13 +7829,10 @@
         <v>45432</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
         <v>1</v>
@@ -8060,16 +7855,16 @@
         <v>45432</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
@@ -8092,13 +7887,10 @@
         <v>45432</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
         <v>1</v>
@@ -8121,16 +7913,16 @@
         <v>45432</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
@@ -8153,13 +7945,10 @@
         <v>45432</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
         <v>1</v>
@@ -8182,16 +7971,16 @@
         <v>45432</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -8214,13 +8003,10 @@
         <v>45432</v>
       </c>
       <c r="B96" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>71</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F96" t="s">
         <v>1</v>
@@ -8243,16 +8029,16 @@
         <v>45432</v>
       </c>
       <c r="B97" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -8275,13 +8061,10 @@
         <v>45432</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>93</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F98" t="s">
         <v>1</v>
@@ -8304,16 +8087,16 @@
         <v>45432</v>
       </c>
       <c r="B99" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" t="s">
         <v>68</v>
       </c>
-      <c r="C99" t="s">
-        <v>72</v>
-      </c>
       <c r="D99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
@@ -8336,13 +8119,10 @@
         <v>45432</v>
       </c>
       <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" t="s">
         <v>68</v>
-      </c>
-      <c r="C100" t="s">
-        <v>72</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
       </c>
       <c r="F100" t="s">
         <v>1</v>
@@ -8365,13 +8145,13 @@
         <v>45432</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
@@ -8397,13 +8177,10 @@
         <v>45432</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
         <v>1</v>
@@ -8426,13 +8203,13 @@
         <v>45432</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E103" t="s">
         <v>3</v>
@@ -8458,13 +8235,10 @@
         <v>45432</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>84</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F104" t="s">
         <v>1</v>
@@ -8487,16 +8261,16 @@
         <v>45432</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
@@ -8519,13 +8293,10 @@
         <v>45432</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
         <v>1</v>
@@ -8548,16 +8319,16 @@
         <v>45432</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
@@ -8580,13 +8351,10 @@
         <v>45432</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
         <v>1</v>
@@ -8609,16 +8377,16 @@
         <v>45432</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C109" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
         <v>0</v>
@@ -8641,16 +8409,16 @@
         <v>45432</v>
       </c>
       <c r="B110" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C110" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
         <v>0</v>
@@ -8673,13 +8441,10 @@
         <v>45432</v>
       </c>
       <c r="B111" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C111" t="s">
-        <v>66</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F111" t="s">
         <v>1</v>
@@ -8702,13 +8467,13 @@
         <v>45432</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112" t="s">
         <v>4</v>
@@ -8734,16 +8499,16 @@
         <v>45432</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C113" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F113" t="s">
         <v>0</v>
@@ -8766,16 +8531,16 @@
         <v>45432</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C114" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F114" t="s">
         <v>0</v>
@@ -8798,13 +8563,10 @@
         <v>45432</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C115" t="s">
-        <v>81</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F115" t="s">
         <v>1</v>
@@ -8827,16 +8589,16 @@
         <v>45432</v>
       </c>
       <c r="B116" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C116" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F116" t="s">
         <v>0</v>
@@ -8859,16 +8621,16 @@
         <v>45432</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C117" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
@@ -8891,13 +8653,10 @@
         <v>45432</v>
       </c>
       <c r="B118" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s">
-        <v>78</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F118" t="s">
         <v>1</v>
@@ -8920,16 +8679,16 @@
         <v>45432</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C119" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F119" t="s">
         <v>0</v>
@@ -8952,16 +8711,16 @@
         <v>45432</v>
       </c>
       <c r="B120" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F120" t="s">
         <v>0</v>
@@ -8984,16 +8743,16 @@
         <v>45432</v>
       </c>
       <c r="B121" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C121" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E121" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="F121" t="s">
         <v>0</v>
@@ -9016,13 +8775,10 @@
         <v>45432</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C122" t="s">
-        <v>62</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F122" t="s">
         <v>1</v>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="99">
   <si>
     <t>entregas</t>
   </si>
@@ -165,9 +165,6 @@
     <t>18:30 - 00:00</t>
   </si>
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
     <t>Restaurante</t>
   </si>
   <si>
@@ -324,7 +321,7 @@
     <t>Falaguata Bonfim</t>
   </si>
   <si>
-    <t>Pizzaria 2 Irmãos - Loja 3</t>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -4840,11 +4837,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-390741392"/>
-        <c:axId val="-390728880"/>
+        <c:axId val="-1854008528"/>
+        <c:axId val="-1854002544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-390741392"/>
+        <c:axId val="-1854008528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4854,7 +4851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-390728880"/>
+        <c:crossAx val="-1854002544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4862,7 +4859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-390728880"/>
+        <c:axId val="-1854002544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4873,7 +4870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-390741392"/>
+        <c:crossAx val="-1854008528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5192,8 +5189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,34 +5209,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6645,10 +6642,10 @@
         <v>45433</v>
       </c>
       <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
         <v>56</v>
-      </c>
-      <c r="C50" t="s">
-        <v>57</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -6677,10 +6674,10 @@
         <v>45433</v>
       </c>
       <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
         <v>56</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
       </c>
       <c r="F51" t="s">
         <v>1</v>
@@ -6703,10 +6700,10 @@
         <v>45433</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -6735,10 +6732,10 @@
         <v>45433</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" t="s">
         <v>1</v>
@@ -6761,10 +6758,10 @@
         <v>45433</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -6793,10 +6790,10 @@
         <v>45433</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
         <v>1</v>
@@ -6819,10 +6816,10 @@
         <v>45433</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -6851,10 +6848,10 @@
         <v>45433</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" t="s">
         <v>1</v>
@@ -6877,16 +6874,16 @@
         <v>45433</v>
       </c>
       <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
         <v>61</v>
-      </c>
-      <c r="C58" t="s">
-        <v>62</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
@@ -6909,10 +6906,10 @@
         <v>45433</v>
       </c>
       <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
         <v>61</v>
-      </c>
-      <c r="C59" t="s">
-        <v>62</v>
       </c>
       <c r="F59" t="s">
         <v>1</v>
@@ -6935,10 +6932,10 @@
         <v>45433</v>
       </c>
       <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
         <v>64</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -6967,10 +6964,10 @@
         <v>45433</v>
       </c>
       <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
         <v>64</v>
-      </c>
-      <c r="C61" t="s">
-        <v>65</v>
       </c>
       <c r="F61" t="s">
         <v>1</v>
@@ -6993,10 +6990,10 @@
         <v>45433</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -7025,10 +7022,10 @@
         <v>45433</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F63" t="s">
         <v>1</v>
@@ -7051,10 +7048,10 @@
         <v>45433</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -7083,10 +7080,10 @@
         <v>45433</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F65" t="s">
         <v>1</v>
@@ -7109,10 +7106,10 @@
         <v>45433</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -7141,10 +7138,10 @@
         <v>45433</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F67" t="s">
         <v>1</v>
@@ -7167,10 +7164,10 @@
         <v>45433</v>
       </c>
       <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
         <v>70</v>
-      </c>
-      <c r="C68" t="s">
-        <v>71</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -7199,10 +7196,10 @@
         <v>45433</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -7231,16 +7228,16 @@
         <v>45433</v>
       </c>
       <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
         <v>73</v>
-      </c>
-      <c r="C70" t="s">
-        <v>74</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
@@ -7263,16 +7260,16 @@
         <v>45433</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
@@ -7295,16 +7292,16 @@
         <v>45433</v>
       </c>
       <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
         <v>76</v>
-      </c>
-      <c r="C72" t="s">
-        <v>77</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -7327,16 +7324,16 @@
         <v>45433</v>
       </c>
       <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
         <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>79</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
@@ -7359,10 +7356,10 @@
         <v>45433</v>
       </c>
       <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
         <v>78</v>
-      </c>
-      <c r="C74" t="s">
-        <v>79</v>
       </c>
       <c r="F74" t="s">
         <v>1</v>
@@ -7385,10 +7382,10 @@
         <v>45433</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -7417,10 +7414,10 @@
         <v>45433</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F76" t="s">
         <v>1</v>
@@ -7443,10 +7440,10 @@
         <v>45433</v>
       </c>
       <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
         <v>81</v>
-      </c>
-      <c r="C77" t="s">
-        <v>82</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -7475,10 +7472,10 @@
         <v>45433</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -7684,7 +7681,7 @@
         <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -7716,7 +7713,7 @@
         <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F86" t="s">
         <v>1</v>
@@ -7742,7 +7739,7 @@
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -7774,7 +7771,7 @@
         <v>30</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F88" t="s">
         <v>1</v>
@@ -7913,7 +7910,7 @@
         <v>45432</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
         <v>32</v>
@@ -7945,7 +7942,7 @@
         <v>45432</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
         <v>32</v>
@@ -7971,10 +7968,10 @@
         <v>45432</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -8003,10 +8000,10 @@
         <v>45432</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F96" t="s">
         <v>1</v>
@@ -8029,10 +8026,10 @@
         <v>45432</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -8061,10 +8058,10 @@
         <v>45432</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F98" t="s">
         <v>1</v>
@@ -8087,10 +8084,10 @@
         <v>45432</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -8119,10 +8116,10 @@
         <v>45432</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F100" t="s">
         <v>1</v>
@@ -8206,7 +8203,7 @@
         <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
@@ -8238,7 +8235,7 @@
         <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F104" t="s">
         <v>1</v>
@@ -8351,7 +8348,7 @@
         <v>45432</v>
       </c>
       <c r="B108" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
         <v>43</v>
@@ -8377,10 +8374,10 @@
         <v>45432</v>
       </c>
       <c r="B109" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" t="s">
         <v>90</v>
-      </c>
-      <c r="C109" t="s">
-        <v>91</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
@@ -8409,10 +8406,10 @@
         <v>45432</v>
       </c>
       <c r="B110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C110" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D110" t="s">
         <v>5</v>
@@ -8441,10 +8438,10 @@
         <v>45432</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F111" t="s">
         <v>1</v>
@@ -8470,7 +8467,7 @@
         <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D112" t="s">
         <v>5</v>
@@ -8499,10 +8496,10 @@
         <v>45432</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
@@ -8531,16 +8528,16 @@
         <v>45432</v>
       </c>
       <c r="B114" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114" t="s">
         <v>76</v>
-      </c>
-      <c r="C114" t="s">
-        <v>77</v>
       </c>
       <c r="D114" t="s">
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F114" t="s">
         <v>0</v>
@@ -8563,10 +8560,10 @@
         <v>45432</v>
       </c>
       <c r="B115" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" t="s">
         <v>76</v>
-      </c>
-      <c r="C115" t="s">
-        <v>77</v>
       </c>
       <c r="F115" t="s">
         <v>1</v>
@@ -8589,16 +8586,16 @@
         <v>45432</v>
       </c>
       <c r="B116" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" t="s">
         <v>95</v>
-      </c>
-      <c r="C116" t="s">
-        <v>96</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F116" t="s">
         <v>0</v>
@@ -8621,16 +8618,16 @@
         <v>45432</v>
       </c>
       <c r="B117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C117" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D117" t="s">
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
@@ -8653,10 +8650,10 @@
         <v>45432</v>
       </c>
       <c r="B118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F118" t="s">
         <v>1</v>
@@ -8679,10 +8676,10 @@
         <v>45432</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
@@ -8711,10 +8708,10 @@
         <v>45432</v>
       </c>
       <c r="B120" t="s">
+        <v>80</v>
+      </c>
+      <c r="C120" t="s">
         <v>81</v>
-      </c>
-      <c r="C120" t="s">
-        <v>82</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -8743,10 +8740,10 @@
         <v>45432</v>
       </c>
       <c r="B121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -8775,10 +8772,10 @@
         <v>45432</v>
       </c>
       <c r="B122" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C122" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F122" t="s">
         <v>1</v>
